--- a/data/Progress_SpeciesLists.xlsx
+++ b/data/Progress_SpeciesLists.xlsx
@@ -1112,9 +1112,6 @@
     <t>complete to site level: from Harvard Forest web site</t>
   </si>
   <si>
-    <t>complete to state/regional level: email between XX and Erin M. Ellison senior research fellow at Harvard Forest, collection there has not been identified down to the species level but he communicated NEON would be more than welcom to come there and identify them.</t>
-  </si>
-  <si>
     <t xml:space="preserve">complete to site level </t>
   </si>
   <si>
@@ -1332,6 +1329,9 @@
   </si>
   <si>
     <t>list for Antillean dry forest</t>
+  </si>
+  <si>
+    <t>complete to state/regional level: email between XX and Aaron M. Ellison senior research fellow at Harvard Forest, collection there has not been identified down to the species level but he communicated NEON would be more than welcom to come there and identify them.</t>
   </si>
 </sst>
 </file>
@@ -1741,12 +1741,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:U502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H482" sqref="H482"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1804,7 +1803,7 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:21" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1845,7 +1844,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1886,7 +1885,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1927,7 +1926,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1968,7 +1967,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -2009,7 +2008,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -2050,7 +2049,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -2091,7 +2090,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -2108,7 +2107,7 @@
         <v>59</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="G9" s="3">
         <v>41426</v>
@@ -2132,7 +2131,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -2149,7 +2148,7 @@
         <v>59</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G10" s="5">
         <v>41791</v>
@@ -2173,7 +2172,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -2190,7 +2189,7 @@
         <v>59</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G11" s="5">
         <v>41791</v>
@@ -2214,7 +2213,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -2231,7 +2230,7 @@
         <v>59</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G12" s="5">
         <v>41791</v>
@@ -2255,7 +2254,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:21" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -2272,7 +2271,7 @@
         <v>59</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G13" s="5">
         <v>41791</v>
@@ -2296,7 +2295,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:21" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -2313,7 +2312,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G14" s="5">
         <v>41791</v>
@@ -2337,7 +2336,7 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:21" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -2354,7 +2353,7 @@
         <v>59</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G15" s="5">
         <v>41791</v>
@@ -2378,7 +2377,7 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:21" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -2395,7 +2394,7 @@
         <v>59</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G16" s="5">
         <v>41791</v>
@@ -2419,7 +2418,7 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="1:21" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -2436,7 +2435,7 @@
         <v>59</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G17" s="5">
         <v>41791</v>
@@ -2460,12 +2459,12 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:21" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
@@ -2494,12 +2493,12 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>7</v>
@@ -2528,12 +2527,12 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>5</v>
@@ -2562,12 +2561,12 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:21" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>4</v>
@@ -2596,12 +2595,12 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:21" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>1</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
@@ -2630,12 +2629,12 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>1</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>8</v>
@@ -2645,7 +2644,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G23" s="3">
         <v>42156</v>
@@ -2666,12 +2665,12 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>1</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>6</v>
@@ -2681,7 +2680,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G24" s="3">
         <v>42156</v>
@@ -2702,12 +2701,12 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:21" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>1</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>1</v>
@@ -2717,7 +2716,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G25" s="3">
         <v>42156</v>
@@ -2738,7 +2737,7 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:21" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>2</v>
       </c>
@@ -2779,7 +2778,7 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>2</v>
       </c>
@@ -2820,7 +2819,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>2</v>
       </c>
@@ -2861,7 +2860,7 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>2</v>
       </c>
@@ -2902,7 +2901,7 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>2</v>
       </c>
@@ -2943,7 +2942,7 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>2</v>
       </c>
@@ -2960,7 +2959,7 @@
         <v>59</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G31" s="5">
         <v>41760</v>
@@ -2984,7 +2983,7 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>2</v>
       </c>
@@ -3025,7 +3024,7 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>2</v>
       </c>
@@ -3066,7 +3065,7 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>2</v>
       </c>
@@ -3103,7 +3102,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>2</v>
       </c>
@@ -3140,7 +3139,7 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>2</v>
       </c>
@@ -3177,7 +3176,7 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>2</v>
       </c>
@@ -3214,7 +3213,7 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>2</v>
       </c>
@@ -3251,7 +3250,7 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>2</v>
       </c>
@@ -3288,7 +3287,7 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>2</v>
       </c>
@@ -3325,7 +3324,7 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>2</v>
       </c>
@@ -3362,7 +3361,7 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>2</v>
       </c>
@@ -3379,7 +3378,7 @@
         <v>52</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G42" s="3">
         <v>42491</v>
@@ -3403,7 +3402,7 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>2</v>
       </c>
@@ -3437,7 +3436,7 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>2</v>
       </c>
@@ -3471,7 +3470,7 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>2</v>
       </c>
@@ -3505,7 +3504,7 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>2</v>
       </c>
@@ -3539,7 +3538,7 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>2</v>
       </c>
@@ -3572,7 +3571,7 @@
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
     </row>
-    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>2</v>
       </c>
@@ -3605,7 +3604,7 @@
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
     </row>
-    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>2</v>
       </c>
@@ -3638,7 +3637,7 @@
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
     </row>
-    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>3</v>
       </c>
@@ -3679,7 +3678,7 @@
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
     </row>
-    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>3</v>
       </c>
@@ -3720,7 +3719,7 @@
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
     </row>
-    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>3</v>
       </c>
@@ -3761,7 +3760,7 @@
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
     </row>
-    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>3</v>
       </c>
@@ -3802,7 +3801,7 @@
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
     </row>
-    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>3</v>
       </c>
@@ -3843,7 +3842,7 @@
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
     </row>
-    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>3</v>
       </c>
@@ -3884,7 +3883,7 @@
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
     </row>
-    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>3</v>
       </c>
@@ -3925,7 +3924,7 @@
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
     </row>
-    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>3</v>
       </c>
@@ -3966,7 +3965,7 @@
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
     </row>
-    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>3</v>
       </c>
@@ -4007,7 +4006,7 @@
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
     </row>
-    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>3</v>
       </c>
@@ -4048,7 +4047,7 @@
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
     </row>
-    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>3</v>
       </c>
@@ -4065,7 +4064,7 @@
         <v>59</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G60" s="3">
         <v>41395</v>
@@ -4089,7 +4088,7 @@
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
     </row>
-    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>3</v>
       </c>
@@ -4106,7 +4105,7 @@
         <v>59</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G61" s="3">
         <v>41395</v>
@@ -4130,7 +4129,7 @@
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
     </row>
-    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>3</v>
       </c>
@@ -4147,7 +4146,7 @@
         <v>59</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G62" s="3">
         <v>41395</v>
@@ -4171,7 +4170,7 @@
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
     </row>
-    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>3</v>
       </c>
@@ -4188,7 +4187,7 @@
         <v>59</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G63" s="3">
         <v>41395</v>
@@ -4212,7 +4211,7 @@
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
     </row>
-    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>3</v>
       </c>
@@ -4229,7 +4228,7 @@
         <v>59</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G64" s="3">
         <v>41395</v>
@@ -4253,7 +4252,7 @@
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
     </row>
-    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>3</v>
       </c>
@@ -4270,7 +4269,7 @@
         <v>59</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G65" s="3">
         <v>41395</v>
@@ -4294,7 +4293,7 @@
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
     </row>
-    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>3</v>
       </c>
@@ -4335,7 +4334,7 @@
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
     </row>
-    <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>3</v>
       </c>
@@ -4376,7 +4375,7 @@
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
     </row>
-    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>3</v>
       </c>
@@ -4417,7 +4416,7 @@
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
     </row>
-    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>3</v>
       </c>
@@ -4458,7 +4457,7 @@
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
     </row>
-    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>3</v>
       </c>
@@ -4499,7 +4498,7 @@
       <c r="T70" s="4"/>
       <c r="U70" s="4"/>
     </row>
-    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>3</v>
       </c>
@@ -4540,7 +4539,7 @@
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
     </row>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>3</v>
       </c>
@@ -4581,7 +4580,7 @@
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
     </row>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>3</v>
       </c>
@@ -4639,7 +4638,7 @@
         <v>52</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G74" s="3">
         <v>42064</v>
@@ -4680,7 +4679,7 @@
         <v>52</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G75" s="3">
         <v>42064</v>
@@ -4704,7 +4703,7 @@
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
     </row>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>4</v>
       </c>
@@ -4738,7 +4737,7 @@
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
     </row>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>4</v>
       </c>
@@ -4772,7 +4771,7 @@
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
     </row>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>4</v>
       </c>
@@ -4806,7 +4805,7 @@
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
     </row>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>4</v>
       </c>
@@ -4821,7 +4820,7 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G79" s="3">
         <v>42064</v>
@@ -4842,7 +4841,7 @@
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
     </row>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>4</v>
       </c>
@@ -4857,7 +4856,7 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G80" s="3">
         <v>42064</v>
@@ -4878,7 +4877,7 @@
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
     </row>
-    <row r="81" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>4</v>
       </c>
@@ -4912,7 +4911,7 @@
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
     </row>
-    <row r="82" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>4</v>
       </c>
@@ -4946,7 +4945,7 @@
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
     </row>
-    <row r="83" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>4</v>
       </c>
@@ -5048,7 +5047,7 @@
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
     </row>
-    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>4</v>
       </c>
@@ -5063,7 +5062,7 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G86" s="3">
         <v>42430</v>
@@ -5084,7 +5083,7 @@
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
     </row>
-    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>4</v>
       </c>
@@ -5099,7 +5098,7 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G87" s="3">
         <v>42430</v>
@@ -5120,7 +5119,7 @@
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
     </row>
-    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>4</v>
       </c>
@@ -5154,12 +5153,12 @@
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
     </row>
-    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>4</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
@@ -5187,12 +5186,12 @@
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
     </row>
-    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>4</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>8</v>
@@ -5226,7 +5225,7 @@
         <v>4</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>7</v>
@@ -5260,7 +5259,7 @@
         <v>4</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>6</v>
@@ -5289,12 +5288,12 @@
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
     </row>
-    <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>4</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>5</v>
@@ -5304,7 +5303,7 @@
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G93" s="3">
         <v>42430</v>
@@ -5325,12 +5324,12 @@
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
     </row>
-    <row r="94" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>4</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>4</v>
@@ -5340,7 +5339,7 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G94" s="3">
         <v>42430</v>
@@ -5361,12 +5360,12 @@
       <c r="T94" s="4"/>
       <c r="U94" s="4"/>
     </row>
-    <row r="95" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>4</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>3</v>
@@ -5395,7 +5394,7 @@
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
     </row>
-    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>4</v>
       </c>
@@ -5429,12 +5428,12 @@
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
     </row>
-    <row r="97" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>4</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>1</v>
@@ -5463,7 +5462,7 @@
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
     </row>
-    <row r="98" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>5</v>
       </c>
@@ -5480,7 +5479,7 @@
         <v>52</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G98" s="5">
         <v>41791</v>
@@ -5504,7 +5503,7 @@
       <c r="T98" s="4"/>
       <c r="U98" s="4"/>
     </row>
-    <row r="99" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>5</v>
       </c>
@@ -5521,7 +5520,7 @@
         <v>52</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G99" s="5">
         <v>41791</v>
@@ -5545,7 +5544,7 @@
       <c r="T99" s="4"/>
       <c r="U99" s="4"/>
     </row>
-    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>5</v>
       </c>
@@ -5562,7 +5561,7 @@
         <v>52</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G100" s="5">
         <v>41791</v>
@@ -5586,7 +5585,7 @@
       <c r="T100" s="4"/>
       <c r="U100" s="4"/>
     </row>
-    <row r="101" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>5</v>
       </c>
@@ -5603,7 +5602,7 @@
         <v>52</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G101" s="5">
         <v>41791</v>
@@ -5627,7 +5626,7 @@
       <c r="T101" s="4"/>
       <c r="U101" s="4"/>
     </row>
-    <row r="102" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>5</v>
       </c>
@@ -5644,7 +5643,7 @@
         <v>52</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G102" s="5">
         <v>41791</v>
@@ -5668,7 +5667,7 @@
       <c r="T102" s="4"/>
       <c r="U102" s="4"/>
     </row>
-    <row r="103" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>5</v>
       </c>
@@ -5685,7 +5684,7 @@
         <v>52</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G103" s="5">
         <v>41791</v>
@@ -5709,7 +5708,7 @@
       <c r="T103" s="4"/>
       <c r="U103" s="4"/>
     </row>
-    <row r="104" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>5</v>
       </c>
@@ -5726,7 +5725,7 @@
         <v>52</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G104" s="5">
         <v>41791</v>
@@ -5750,7 +5749,7 @@
       <c r="T104" s="4"/>
       <c r="U104" s="4"/>
     </row>
-    <row r="105" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>5</v>
       </c>
@@ -5767,7 +5766,7 @@
         <v>52</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G105" s="5">
         <v>41791</v>
@@ -5791,7 +5790,7 @@
       <c r="T105" s="4"/>
       <c r="U105" s="4"/>
     </row>
-    <row r="106" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>5</v>
       </c>
@@ -5808,7 +5807,7 @@
         <v>52</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G106" s="3">
         <v>42156</v>
@@ -5832,7 +5831,7 @@
       <c r="T106" s="4"/>
       <c r="U106" s="4"/>
     </row>
-    <row r="107" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>5</v>
       </c>
@@ -5847,7 +5846,7 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G107" s="3">
         <v>42156</v>
@@ -5871,7 +5870,7 @@
       <c r="T107" s="4"/>
       <c r="U107" s="4"/>
     </row>
-    <row r="108" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>5</v>
       </c>
@@ -5886,7 +5885,7 @@
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G108" s="3">
         <v>42156</v>
@@ -5910,7 +5909,7 @@
       <c r="T108" s="4"/>
       <c r="U108" s="4"/>
     </row>
-    <row r="109" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>5</v>
       </c>
@@ -5925,7 +5924,7 @@
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G109" s="3">
         <v>42156</v>
@@ -5949,7 +5948,7 @@
       <c r="T109" s="4"/>
       <c r="U109" s="4"/>
     </row>
-    <row r="110" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>5</v>
       </c>
@@ -5983,7 +5982,7 @@
       <c r="T110" s="4"/>
       <c r="U110" s="4"/>
     </row>
-    <row r="111" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>5</v>
       </c>
@@ -6000,7 +5999,7 @@
         <v>52</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G111" s="3">
         <v>42156</v>
@@ -6024,7 +6023,7 @@
       <c r="T111" s="4"/>
       <c r="U111" s="4"/>
     </row>
-    <row r="112" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>5</v>
       </c>
@@ -6041,7 +6040,7 @@
         <v>52</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G112" s="3">
         <v>42156</v>
@@ -6065,7 +6064,7 @@
       <c r="T112" s="4"/>
       <c r="U112" s="4"/>
     </row>
-    <row r="113" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>5</v>
       </c>
@@ -6082,7 +6081,7 @@
         <v>52</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G113" s="3">
         <v>42156</v>
@@ -6106,7 +6105,7 @@
       <c r="T113" s="4"/>
       <c r="U113" s="4"/>
     </row>
-    <row r="114" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>5</v>
       </c>
@@ -6140,7 +6139,7 @@
       <c r="T114" s="2"/>
       <c r="U114" s="2"/>
     </row>
-    <row r="115" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>5</v>
       </c>
@@ -6155,7 +6154,7 @@
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G115" s="3">
         <v>42156</v>
@@ -6179,7 +6178,7 @@
       <c r="T115" s="2"/>
       <c r="U115" s="2"/>
     </row>
-    <row r="116" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>5</v>
       </c>
@@ -6194,7 +6193,7 @@
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G116" s="3">
         <v>42156</v>
@@ -6218,7 +6217,7 @@
       <c r="T116" s="2"/>
       <c r="U116" s="2"/>
     </row>
-    <row r="117" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>5</v>
       </c>
@@ -6251,7 +6250,7 @@
       <c r="T117" s="2"/>
       <c r="U117" s="2"/>
     </row>
-    <row r="118" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>5</v>
       </c>
@@ -6268,7 +6267,7 @@
         <v>52</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G118" s="3">
         <v>42156</v>
@@ -6292,7 +6291,7 @@
       <c r="T118" s="2"/>
       <c r="U118" s="2"/>
     </row>
-    <row r="119" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>5</v>
       </c>
@@ -6309,7 +6308,7 @@
         <v>52</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G119" s="3">
         <v>42156</v>
@@ -6333,7 +6332,7 @@
       <c r="T119" s="2"/>
       <c r="U119" s="2"/>
     </row>
-    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>5</v>
       </c>
@@ -6350,7 +6349,7 @@
         <v>52</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G120" s="3">
         <v>42156</v>
@@ -6374,7 +6373,7 @@
       <c r="T120" s="2"/>
       <c r="U120" s="2"/>
     </row>
-    <row r="121" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>5</v>
       </c>
@@ -6408,7 +6407,7 @@
       <c r="T121" s="2"/>
       <c r="U121" s="2"/>
     </row>
-    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>6</v>
       </c>
@@ -6425,7 +6424,7 @@
         <v>52</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G122" s="3">
         <v>42461</v>
@@ -6449,7 +6448,7 @@
       <c r="T122" s="2"/>
       <c r="U122" s="2"/>
     </row>
-    <row r="123" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>6</v>
       </c>
@@ -6466,7 +6465,7 @@
         <v>52</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G123" s="3">
         <v>42461</v>
@@ -6490,7 +6489,7 @@
       <c r="T123" s="2"/>
       <c r="U123" s="2"/>
     </row>
-    <row r="124" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>6</v>
       </c>
@@ -6507,7 +6506,7 @@
         <v>52</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G124" s="3">
         <v>42461</v>
@@ -6531,7 +6530,7 @@
       <c r="T124" s="2"/>
       <c r="U124" s="2"/>
     </row>
-    <row r="125" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>6</v>
       </c>
@@ -6548,7 +6547,7 @@
         <v>52</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G125" s="3">
         <v>42461</v>
@@ -6572,7 +6571,7 @@
       <c r="T125" s="2"/>
       <c r="U125" s="2"/>
     </row>
-    <row r="126" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>6</v>
       </c>
@@ -6589,7 +6588,7 @@
         <v>52</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G126" s="3">
         <v>42461</v>
@@ -6613,7 +6612,7 @@
       <c r="T126" s="2"/>
       <c r="U126" s="2"/>
     </row>
-    <row r="127" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>6</v>
       </c>
@@ -6630,7 +6629,7 @@
         <v>52</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G127" s="3">
         <v>42461</v>
@@ -6654,7 +6653,7 @@
       <c r="T127" s="2"/>
       <c r="U127" s="2"/>
     </row>
-    <row r="128" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>6</v>
       </c>
@@ -6671,7 +6670,7 @@
         <v>52</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G128" s="3">
         <v>42461</v>
@@ -6695,7 +6694,7 @@
       <c r="T128" s="2"/>
       <c r="U128" s="2"/>
     </row>
-    <row r="129" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>6</v>
       </c>
@@ -6712,7 +6711,7 @@
         <v>52</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G129" s="3">
         <v>42461</v>
@@ -6734,7 +6733,7 @@
       <c r="T129" s="2"/>
       <c r="U129" s="2"/>
     </row>
-    <row r="130" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>6</v>
       </c>
@@ -6751,7 +6750,7 @@
         <v>52</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G130" s="3">
         <v>42826</v>
@@ -6775,7 +6774,7 @@
       <c r="T130" s="2"/>
       <c r="U130" s="2"/>
     </row>
-    <row r="131" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>6</v>
       </c>
@@ -6792,7 +6791,7 @@
         <v>52</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G131" s="3">
         <v>42826</v>
@@ -6816,7 +6815,7 @@
       <c r="T131" s="2"/>
       <c r="U131" s="2"/>
     </row>
-    <row r="132" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>6</v>
       </c>
@@ -6833,7 +6832,7 @@
         <v>52</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G132" s="3">
         <v>42826</v>
@@ -6857,7 +6856,7 @@
       <c r="T132" s="2"/>
       <c r="U132" s="2"/>
     </row>
-    <row r="133" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>6</v>
       </c>
@@ -6874,7 +6873,7 @@
         <v>52</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G133" s="3">
         <v>42826</v>
@@ -6898,7 +6897,7 @@
       <c r="T133" s="2"/>
       <c r="U133" s="2"/>
     </row>
-    <row r="134" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>6</v>
       </c>
@@ -6915,7 +6914,7 @@
         <v>52</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G134" s="3">
         <v>42826</v>
@@ -6939,7 +6938,7 @@
       <c r="T134" s="2"/>
       <c r="U134" s="2"/>
     </row>
-    <row r="135" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>6</v>
       </c>
@@ -6956,7 +6955,7 @@
         <v>52</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G135" s="3">
         <v>42826</v>
@@ -6980,7 +6979,7 @@
       <c r="T135" s="2"/>
       <c r="U135" s="2"/>
     </row>
-    <row r="136" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>6</v>
       </c>
@@ -6997,7 +6996,7 @@
         <v>52</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G136" s="3">
         <v>42826</v>
@@ -7021,12 +7020,12 @@
       <c r="T136" s="2"/>
       <c r="U136" s="2"/>
     </row>
-    <row r="137" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>6</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>8</v>
@@ -7038,7 +7037,7 @@
         <v>52</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G137" s="3">
         <v>42826</v>
@@ -7062,12 +7061,12 @@
       <c r="T137" s="2"/>
       <c r="U137" s="2"/>
     </row>
-    <row r="138" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>6</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>5</v>
@@ -7079,7 +7078,7 @@
         <v>52</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G138" s="3">
         <v>42826</v>
@@ -7103,12 +7102,12 @@
       <c r="T138" s="2"/>
       <c r="U138" s="2"/>
     </row>
-    <row r="139" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>6</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>4</v>
@@ -7120,7 +7119,7 @@
         <v>52</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G139" s="3">
         <v>42826</v>
@@ -7144,12 +7143,12 @@
       <c r="T139" s="2"/>
       <c r="U139" s="2"/>
     </row>
-    <row r="140" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>6</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -7161,7 +7160,7 @@
         <v>52</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G140" s="3">
         <v>42826</v>
@@ -7185,12 +7184,12 @@
       <c r="T140" s="2"/>
       <c r="U140" s="2"/>
     </row>
-    <row r="141" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>6</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>7</v>
@@ -7202,7 +7201,7 @@
         <v>52</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G141" s="3">
         <v>42826</v>
@@ -7226,12 +7225,12 @@
       <c r="T141" s="2"/>
       <c r="U141" s="2"/>
     </row>
-    <row r="142" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>6</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>6</v>
@@ -7243,7 +7242,7 @@
         <v>52</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G142" s="3">
         <v>42826</v>
@@ -7267,12 +7266,12 @@
       <c r="T142" s="2"/>
       <c r="U142" s="2"/>
     </row>
-    <row r="143" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>6</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>3</v>
@@ -7301,7 +7300,7 @@
       <c r="T143" s="2"/>
       <c r="U143" s="2"/>
     </row>
-    <row r="144" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>6</v>
       </c>
@@ -7318,7 +7317,7 @@
         <v>52</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G144" s="3">
         <v>42826</v>
@@ -7340,12 +7339,12 @@
       <c r="T144" s="2"/>
       <c r="U144" s="2"/>
     </row>
-    <row r="145" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>6</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>1</v>
@@ -7374,7 +7373,7 @@
       <c r="T145" s="2"/>
       <c r="U145" s="2"/>
     </row>
-    <row r="146" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>7</v>
       </c>
@@ -7415,7 +7414,7 @@
       <c r="T146" s="2"/>
       <c r="U146" s="2"/>
     </row>
-    <row r="147" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
         <v>7</v>
       </c>
@@ -7456,7 +7455,7 @@
       <c r="T147" s="2"/>
       <c r="U147" s="2"/>
     </row>
-    <row r="148" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>7</v>
       </c>
@@ -7497,7 +7496,7 @@
       <c r="T148" s="2"/>
       <c r="U148" s="2"/>
     </row>
-    <row r="149" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>7</v>
       </c>
@@ -7538,7 +7537,7 @@
       <c r="T149" s="2"/>
       <c r="U149" s="2"/>
     </row>
-    <row r="150" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>7</v>
       </c>
@@ -7579,7 +7578,7 @@
       <c r="T150" s="2"/>
       <c r="U150" s="2"/>
     </row>
-    <row r="151" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>7</v>
       </c>
@@ -7620,7 +7619,7 @@
       <c r="T151" s="2"/>
       <c r="U151" s="2"/>
     </row>
-    <row r="152" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
         <v>7</v>
       </c>
@@ -7661,7 +7660,7 @@
       <c r="T152" s="2"/>
       <c r="U152" s="2"/>
     </row>
-    <row r="153" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
         <v>7</v>
       </c>
@@ -7702,7 +7701,7 @@
       <c r="T153" s="2"/>
       <c r="U153" s="2"/>
     </row>
-    <row r="154" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>7</v>
       </c>
@@ -7736,7 +7735,7 @@
       <c r="T154" s="2"/>
       <c r="U154" s="2"/>
     </row>
-    <row r="155" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>7</v>
       </c>
@@ -7770,7 +7769,7 @@
       <c r="T155" s="2"/>
       <c r="U155" s="2"/>
     </row>
-    <row r="156" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>7</v>
       </c>
@@ -7804,7 +7803,7 @@
       <c r="T156" s="2"/>
       <c r="U156" s="2"/>
     </row>
-    <row r="157" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>7</v>
       </c>
@@ -7838,7 +7837,7 @@
       <c r="T157" s="2"/>
       <c r="U157" s="2"/>
     </row>
-    <row r="158" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>7</v>
       </c>
@@ -7872,7 +7871,7 @@
       <c r="T158" s="2"/>
       <c r="U158" s="2"/>
     </row>
-    <row r="159" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>7</v>
       </c>
@@ -7906,7 +7905,7 @@
       <c r="T159" s="2"/>
       <c r="U159" s="2"/>
     </row>
-    <row r="160" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>7</v>
       </c>
@@ -7940,7 +7939,7 @@
       <c r="T160" s="2"/>
       <c r="U160" s="2"/>
     </row>
-    <row r="161" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>7</v>
       </c>
@@ -7974,7 +7973,7 @@
       <c r="T161" s="2"/>
       <c r="U161" s="2"/>
     </row>
-    <row r="162" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>7</v>
       </c>
@@ -8008,7 +8007,7 @@
       <c r="T162" s="2"/>
       <c r="U162" s="2"/>
     </row>
-    <row r="163" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>7</v>
       </c>
@@ -8042,7 +8041,7 @@
       <c r="T163" s="2"/>
       <c r="U163" s="2"/>
     </row>
-    <row r="164" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>7</v>
       </c>
@@ -8076,7 +8075,7 @@
       <c r="T164" s="2"/>
       <c r="U164" s="2"/>
     </row>
-    <row r="165" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>7</v>
       </c>
@@ -8110,7 +8109,7 @@
       <c r="T165" s="2"/>
       <c r="U165" s="2"/>
     </row>
-    <row r="166" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>7</v>
       </c>
@@ -8144,7 +8143,7 @@
       <c r="T166" s="2"/>
       <c r="U166" s="2"/>
     </row>
-    <row r="167" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>7</v>
       </c>
@@ -8178,7 +8177,7 @@
       <c r="T167" s="2"/>
       <c r="U167" s="2"/>
     </row>
-    <row r="168" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>7</v>
       </c>
@@ -8212,7 +8211,7 @@
       <c r="T168" s="2"/>
       <c r="U168" s="2"/>
     </row>
-    <row r="169" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>7</v>
       </c>
@@ -8246,7 +8245,7 @@
       <c r="T169" s="2"/>
       <c r="U169" s="2"/>
     </row>
-    <row r="170" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
         <v>8</v>
       </c>
@@ -8287,7 +8286,7 @@
       <c r="T170" s="2"/>
       <c r="U170" s="2"/>
     </row>
-    <row r="171" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
         <v>8</v>
       </c>
@@ -8328,7 +8327,7 @@
       <c r="T171" s="2"/>
       <c r="U171" s="2"/>
     </row>
-    <row r="172" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
         <v>8</v>
       </c>
@@ -8345,7 +8344,7 @@
         <v>56</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G172" s="5">
         <v>41760</v>
@@ -8369,7 +8368,7 @@
       <c r="T172" s="2"/>
       <c r="U172" s="2"/>
     </row>
-    <row r="173" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
         <v>8</v>
       </c>
@@ -8386,7 +8385,7 @@
         <v>56</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G173" s="5">
         <v>41760</v>
@@ -8410,7 +8409,7 @@
       <c r="T173" s="2"/>
       <c r="U173" s="2"/>
     </row>
-    <row r="174" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
         <v>8</v>
       </c>
@@ -8427,7 +8426,7 @@
         <v>56</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G174" s="5">
         <v>41760</v>
@@ -8451,7 +8450,7 @@
       <c r="T174" s="2"/>
       <c r="U174" s="2"/>
     </row>
-    <row r="175" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
         <v>8</v>
       </c>
@@ -8468,7 +8467,7 @@
         <v>56</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G175" s="5">
         <v>41760</v>
@@ -8492,7 +8491,7 @@
       <c r="T175" s="2"/>
       <c r="U175" s="2"/>
     </row>
-    <row r="176" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
         <v>8</v>
       </c>
@@ -8531,7 +8530,7 @@
       <c r="T176" s="2"/>
       <c r="U176" s="2"/>
     </row>
-    <row r="177" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177" s="4">
         <v>8</v>
       </c>
@@ -8570,7 +8569,7 @@
       <c r="T177" s="2"/>
       <c r="U177" s="2"/>
     </row>
-    <row r="178" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>8</v>
       </c>
@@ -8585,7 +8584,7 @@
       </c>
       <c r="E178" s="2"/>
       <c r="F178" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G178" s="3">
         <v>42125</v>
@@ -8606,7 +8605,7 @@
       <c r="T178" s="2"/>
       <c r="U178" s="2"/>
     </row>
-    <row r="179" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>8</v>
       </c>
@@ -8640,7 +8639,7 @@
       <c r="T179" s="2"/>
       <c r="U179" s="2"/>
     </row>
-    <row r="180" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>8</v>
       </c>
@@ -8674,7 +8673,7 @@
       <c r="T180" s="2"/>
       <c r="U180" s="2"/>
     </row>
-    <row r="181" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>8</v>
       </c>
@@ -8708,7 +8707,7 @@
       <c r="T181" s="2"/>
       <c r="U181" s="2"/>
     </row>
-    <row r="182" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>8</v>
       </c>
@@ -8742,7 +8741,7 @@
       <c r="T182" s="2"/>
       <c r="U182" s="2"/>
     </row>
-    <row r="183" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>8</v>
       </c>
@@ -8776,7 +8775,7 @@
       <c r="T183" s="2"/>
       <c r="U183" s="2"/>
     </row>
-    <row r="184" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>8</v>
       </c>
@@ -8810,7 +8809,7 @@
       <c r="T184" s="2"/>
       <c r="U184" s="2"/>
     </row>
-    <row r="185" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>8</v>
       </c>
@@ -8844,7 +8843,7 @@
       <c r="T185" s="2"/>
       <c r="U185" s="2"/>
     </row>
-    <row r="186" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>8</v>
       </c>
@@ -8878,7 +8877,7 @@
       <c r="T186" s="2"/>
       <c r="U186" s="2"/>
     </row>
-    <row r="187" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>8</v>
       </c>
@@ -8912,7 +8911,7 @@
       <c r="T187" s="2"/>
       <c r="U187" s="2"/>
     </row>
-    <row r="188" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>8</v>
       </c>
@@ -8946,7 +8945,7 @@
       <c r="T188" s="2"/>
       <c r="U188" s="2"/>
     </row>
-    <row r="189" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>8</v>
       </c>
@@ -8980,7 +8979,7 @@
       <c r="T189" s="2"/>
       <c r="U189" s="2"/>
     </row>
-    <row r="190" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>8</v>
       </c>
@@ -9014,7 +9013,7 @@
       <c r="T190" s="2"/>
       <c r="U190" s="2"/>
     </row>
-    <row r="191" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>8</v>
       </c>
@@ -9048,7 +9047,7 @@
       <c r="T191" s="2"/>
       <c r="U191" s="2"/>
     </row>
-    <row r="192" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>8</v>
       </c>
@@ -9082,7 +9081,7 @@
       <c r="T192" s="2"/>
       <c r="U192" s="2"/>
     </row>
-    <row r="193" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>8</v>
       </c>
@@ -9116,7 +9115,7 @@
       <c r="T193" s="2"/>
       <c r="U193" s="2"/>
     </row>
-    <row r="194" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A194" s="4">
         <v>9</v>
       </c>
@@ -9133,7 +9132,7 @@
         <v>59</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G194" s="5">
         <v>41791</v>
@@ -9157,7 +9156,7 @@
       <c r="T194" s="2"/>
       <c r="U194" s="2"/>
     </row>
-    <row r="195" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A195" s="4">
         <v>9</v>
       </c>
@@ -9174,7 +9173,7 @@
         <v>59</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G195" s="5">
         <v>41791</v>
@@ -9198,7 +9197,7 @@
       <c r="T195" s="2"/>
       <c r="U195" s="2"/>
     </row>
-    <row r="196" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A196" s="4">
         <v>9</v>
       </c>
@@ -9215,7 +9214,7 @@
         <v>59</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G196" s="5">
         <v>41791</v>
@@ -9239,7 +9238,7 @@
       <c r="T196" s="2"/>
       <c r="U196" s="2"/>
     </row>
-    <row r="197" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A197" s="4">
         <v>9</v>
       </c>
@@ -9256,7 +9255,7 @@
         <v>59</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G197" s="5">
         <v>41791</v>
@@ -9280,7 +9279,7 @@
       <c r="T197" s="2"/>
       <c r="U197" s="2"/>
     </row>
-    <row r="198" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A198" s="4">
         <v>9</v>
       </c>
@@ -9297,7 +9296,7 @@
         <v>59</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G198" s="5">
         <v>41791</v>
@@ -9321,7 +9320,7 @@
       <c r="T198" s="2"/>
       <c r="U198" s="2"/>
     </row>
-    <row r="199" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A199" s="4">
         <v>9</v>
       </c>
@@ -9338,7 +9337,7 @@
         <v>59</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G199" s="5">
         <v>41791</v>
@@ -9362,7 +9361,7 @@
       <c r="T199" s="2"/>
       <c r="U199" s="2"/>
     </row>
-    <row r="200" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
         <v>9</v>
       </c>
@@ -9379,7 +9378,7 @@
         <v>59</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G200" s="5">
         <v>41791</v>
@@ -9403,7 +9402,7 @@
       <c r="T200" s="2"/>
       <c r="U200" s="2"/>
     </row>
-    <row r="201" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A201" s="4">
         <v>9</v>
       </c>
@@ -9420,7 +9419,7 @@
         <v>59</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G201" s="5">
         <v>41791</v>
@@ -9444,7 +9443,7 @@
       <c r="T201" s="2"/>
       <c r="U201" s="2"/>
     </row>
-    <row r="202" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>9</v>
       </c>
@@ -9459,7 +9458,7 @@
       </c>
       <c r="E202" s="2"/>
       <c r="F202" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G202" s="3">
         <v>42125</v>
@@ -9480,7 +9479,7 @@
       <c r="T202" s="2"/>
       <c r="U202" s="2"/>
     </row>
-    <row r="203" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>9</v>
       </c>
@@ -9495,7 +9494,7 @@
       </c>
       <c r="E203" s="2"/>
       <c r="F203" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G203" s="3">
         <v>42125</v>
@@ -9516,7 +9515,7 @@
       <c r="T203" s="2"/>
       <c r="U203" s="2"/>
     </row>
-    <row r="204" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>9</v>
       </c>
@@ -9531,7 +9530,7 @@
       </c>
       <c r="E204" s="2"/>
       <c r="F204" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G204" s="3">
         <v>42125</v>
@@ -9552,7 +9551,7 @@
       <c r="T204" s="2"/>
       <c r="U204" s="2"/>
     </row>
-    <row r="205" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>9</v>
       </c>
@@ -9567,7 +9566,7 @@
       </c>
       <c r="E205" s="2"/>
       <c r="F205" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G205" s="3">
         <v>42125</v>
@@ -9588,7 +9587,7 @@
       <c r="T205" s="2"/>
       <c r="U205" s="2"/>
     </row>
-    <row r="206" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>9</v>
       </c>
@@ -9603,7 +9602,7 @@
       </c>
       <c r="E206" s="2"/>
       <c r="F206" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G206" s="3">
         <v>42125</v>
@@ -9624,7 +9623,7 @@
       <c r="T206" s="2"/>
       <c r="U206" s="2"/>
     </row>
-    <row r="207" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>9</v>
       </c>
@@ -9639,7 +9638,7 @@
       </c>
       <c r="E207" s="2"/>
       <c r="F207" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G207" s="3">
         <v>42125</v>
@@ -9660,7 +9659,7 @@
       <c r="T207" s="2"/>
       <c r="U207" s="2"/>
     </row>
-    <row r="208" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>9</v>
       </c>
@@ -9675,7 +9674,7 @@
       </c>
       <c r="E208" s="2"/>
       <c r="F208" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G208" s="3">
         <v>42125</v>
@@ -9696,7 +9695,7 @@
       <c r="T208" s="2"/>
       <c r="U208" s="2"/>
     </row>
-    <row r="209" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>9</v>
       </c>
@@ -9711,7 +9710,7 @@
       </c>
       <c r="E209" s="2"/>
       <c r="F209" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G209" s="3">
         <v>42125</v>
@@ -9732,7 +9731,7 @@
       <c r="T209" s="2"/>
       <c r="U209" s="2"/>
     </row>
-    <row r="210" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>9</v>
       </c>
@@ -9766,7 +9765,7 @@
       <c r="T210" s="2"/>
       <c r="U210" s="2"/>
     </row>
-    <row r="211" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>9</v>
       </c>
@@ -9781,7 +9780,7 @@
       </c>
       <c r="E211" s="2"/>
       <c r="F211" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G211" s="3">
         <v>42156</v>
@@ -9802,7 +9801,7 @@
       <c r="T211" s="2"/>
       <c r="U211" s="2"/>
     </row>
-    <row r="212" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>9</v>
       </c>
@@ -9836,7 +9835,7 @@
       <c r="T212" s="2"/>
       <c r="U212" s="2"/>
     </row>
-    <row r="213" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>9</v>
       </c>
@@ -9870,7 +9869,7 @@
       <c r="T213" s="2"/>
       <c r="U213" s="2"/>
     </row>
-    <row r="214" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>9</v>
       </c>
@@ -9904,7 +9903,7 @@
       <c r="T214" s="2"/>
       <c r="U214" s="2"/>
     </row>
-    <row r="215" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>9</v>
       </c>
@@ -9919,7 +9918,7 @@
       </c>
       <c r="E215" s="2"/>
       <c r="F215" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G215" s="3">
         <v>42156</v>
@@ -9940,7 +9939,7 @@
       <c r="T215" s="2"/>
       <c r="U215" s="2"/>
     </row>
-    <row r="216" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>9</v>
       </c>
@@ -9955,7 +9954,7 @@
       </c>
       <c r="E216" s="2"/>
       <c r="F216" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G216" s="3">
         <v>42156</v>
@@ -9976,7 +9975,7 @@
       <c r="T216" s="2"/>
       <c r="U216" s="2"/>
     </row>
-    <row r="217" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>9</v>
       </c>
@@ -10010,7 +10009,7 @@
       <c r="T217" s="2"/>
       <c r="U217" s="2"/>
     </row>
-    <row r="218" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>10</v>
       </c>
@@ -10051,7 +10050,7 @@
       <c r="T218" s="2"/>
       <c r="U218" s="2"/>
     </row>
-    <row r="219" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>10</v>
       </c>
@@ -10092,7 +10091,7 @@
       <c r="T219" s="2"/>
       <c r="U219" s="2"/>
     </row>
-    <row r="220" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>10</v>
       </c>
@@ -10133,7 +10132,7 @@
       <c r="T220" s="2"/>
       <c r="U220" s="2"/>
     </row>
-    <row r="221" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>10</v>
       </c>
@@ -10174,7 +10173,7 @@
       <c r="T221" s="2"/>
       <c r="U221" s="2"/>
     </row>
-    <row r="222" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>10</v>
       </c>
@@ -10215,7 +10214,7 @@
       <c r="T222" s="2"/>
       <c r="U222" s="2"/>
     </row>
-    <row r="223" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>10</v>
       </c>
@@ -10256,7 +10255,7 @@
       <c r="T223" s="2"/>
       <c r="U223" s="2"/>
     </row>
-    <row r="224" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>10</v>
       </c>
@@ -10297,7 +10296,7 @@
       <c r="T224" s="2"/>
       <c r="U224" s="2"/>
     </row>
-    <row r="225" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>10</v>
       </c>
@@ -10338,7 +10337,7 @@
       <c r="T225" s="2"/>
       <c r="U225" s="2"/>
     </row>
-    <row r="226" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>10</v>
       </c>
@@ -10379,7 +10378,7 @@
       <c r="T226" s="2"/>
       <c r="U226" s="2"/>
     </row>
-    <row r="227" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>10</v>
       </c>
@@ -10420,7 +10419,7 @@
       <c r="T227" s="2"/>
       <c r="U227" s="2"/>
     </row>
-    <row r="228" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>10</v>
       </c>
@@ -10461,7 +10460,7 @@
       <c r="T228" s="2"/>
       <c r="U228" s="2"/>
     </row>
-    <row r="229" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>10</v>
       </c>
@@ -10502,7 +10501,7 @@
       <c r="T229" s="2"/>
       <c r="U229" s="2"/>
     </row>
-    <row r="230" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>10</v>
       </c>
@@ -10543,7 +10542,7 @@
       <c r="T230" s="2"/>
       <c r="U230" s="2"/>
     </row>
-    <row r="231" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>10</v>
       </c>
@@ -10584,7 +10583,7 @@
       <c r="T231" s="2"/>
       <c r="U231" s="2"/>
     </row>
-    <row r="232" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>10</v>
       </c>
@@ -10625,7 +10624,7 @@
       <c r="T232" s="2"/>
       <c r="U232" s="2"/>
     </row>
-    <row r="233" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>10</v>
       </c>
@@ -10666,7 +10665,7 @@
       <c r="T233" s="2"/>
       <c r="U233" s="2"/>
     </row>
-    <row r="234" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>10</v>
       </c>
@@ -10707,7 +10706,7 @@
       <c r="T234" s="2"/>
       <c r="U234" s="2"/>
     </row>
-    <row r="235" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>10</v>
       </c>
@@ -10748,7 +10747,7 @@
       <c r="T235" s="2"/>
       <c r="U235" s="2"/>
     </row>
-    <row r="236" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>10</v>
       </c>
@@ -10789,7 +10788,7 @@
       <c r="T236" s="2"/>
       <c r="U236" s="2"/>
     </row>
-    <row r="237" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>10</v>
       </c>
@@ -10830,7 +10829,7 @@
       <c r="T237" s="2"/>
       <c r="U237" s="2"/>
     </row>
-    <row r="238" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>10</v>
       </c>
@@ -10871,7 +10870,7 @@
       <c r="T238" s="2"/>
       <c r="U238" s="2"/>
     </row>
-    <row r="239" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>10</v>
       </c>
@@ -10912,7 +10911,7 @@
       <c r="T239" s="2"/>
       <c r="U239" s="2"/>
     </row>
-    <row r="240" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>10</v>
       </c>
@@ -10953,7 +10952,7 @@
       <c r="T240" s="2"/>
       <c r="U240" s="2"/>
     </row>
-    <row r="241" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>10</v>
       </c>
@@ -10994,7 +10993,7 @@
       <c r="T241" s="2"/>
       <c r="U241" s="2"/>
     </row>
-    <row r="242" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>11</v>
       </c>
@@ -11028,7 +11027,7 @@
       <c r="T242" s="2"/>
       <c r="U242" s="2"/>
     </row>
-    <row r="243" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>11</v>
       </c>
@@ -11062,7 +11061,7 @@
       <c r="T243" s="2"/>
       <c r="U243" s="2"/>
     </row>
-    <row r="244" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>11</v>
       </c>
@@ -11096,7 +11095,7 @@
       <c r="T244" s="2"/>
       <c r="U244" s="2"/>
     </row>
-    <row r="245" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>11</v>
       </c>
@@ -11130,7 +11129,7 @@
       <c r="T245" s="2"/>
       <c r="U245" s="2"/>
     </row>
-    <row r="246" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>11</v>
       </c>
@@ -11147,7 +11146,7 @@
         <v>52</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G246" s="3">
         <v>42125</v>
@@ -11171,7 +11170,7 @@
       <c r="T246" s="2"/>
       <c r="U246" s="2"/>
     </row>
-    <row r="247" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>11</v>
       </c>
@@ -11188,7 +11187,7 @@
         <v>52</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G247" s="3">
         <v>42125</v>
@@ -11212,7 +11211,7 @@
       <c r="T247" s="2"/>
       <c r="U247" s="2"/>
     </row>
-    <row r="248" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>11</v>
       </c>
@@ -11246,7 +11245,7 @@
       <c r="T248" s="2"/>
       <c r="U248" s="2"/>
     </row>
-    <row r="249" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>11</v>
       </c>
@@ -11280,7 +11279,7 @@
       <c r="T249" s="2"/>
       <c r="U249" s="2"/>
     </row>
-    <row r="250" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>11</v>
       </c>
@@ -11314,7 +11313,7 @@
       <c r="T250" s="2"/>
       <c r="U250" s="2"/>
     </row>
-    <row r="251" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>11</v>
       </c>
@@ -11348,7 +11347,7 @@
       <c r="T251" s="2"/>
       <c r="U251" s="2"/>
     </row>
-    <row r="252" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>11</v>
       </c>
@@ -11382,7 +11381,7 @@
       <c r="T252" s="2"/>
       <c r="U252" s="2"/>
     </row>
-    <row r="253" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>11</v>
       </c>
@@ -11416,7 +11415,7 @@
       <c r="T253" s="2"/>
       <c r="U253" s="2"/>
     </row>
-    <row r="254" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>11</v>
       </c>
@@ -11433,7 +11432,7 @@
         <v>52</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G254" s="3">
         <v>42491</v>
@@ -11454,7 +11453,7 @@
       <c r="T254" s="2"/>
       <c r="U254" s="2"/>
     </row>
-    <row r="255" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>11</v>
       </c>
@@ -11471,7 +11470,7 @@
         <v>52</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G255" s="3">
         <v>42491</v>
@@ -11492,7 +11491,7 @@
       <c r="T255" s="2"/>
       <c r="U255" s="2"/>
     </row>
-    <row r="256" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>11</v>
       </c>
@@ -11526,7 +11525,7 @@
       <c r="T256" s="2"/>
       <c r="U256" s="2"/>
     </row>
-    <row r="257" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>11</v>
       </c>
@@ -11560,12 +11559,12 @@
       <c r="T257" s="2"/>
       <c r="U257" s="2"/>
     </row>
-    <row r="258" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>11</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>9</v>
@@ -11594,12 +11593,12 @@
       <c r="T258" s="2"/>
       <c r="U258" s="2"/>
     </row>
-    <row r="259" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>11</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>8</v>
@@ -11628,12 +11627,12 @@
       <c r="T259" s="2"/>
       <c r="U259" s="2"/>
     </row>
-    <row r="260" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>11</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>7</v>
@@ -11662,12 +11661,12 @@
       <c r="T260" s="2"/>
       <c r="U260" s="2"/>
     </row>
-    <row r="261" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>11</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>6</v>
@@ -11696,12 +11695,12 @@
       <c r="T261" s="2"/>
       <c r="U261" s="2"/>
     </row>
-    <row r="262" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>11</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>5</v>
@@ -11730,12 +11729,12 @@
       <c r="T262" s="2"/>
       <c r="U262" s="2"/>
     </row>
-    <row r="263" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>11</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>4</v>
@@ -11764,12 +11763,12 @@
       <c r="T263" s="2"/>
       <c r="U263" s="2"/>
     </row>
-    <row r="264" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>11</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>3</v>
@@ -11798,12 +11797,12 @@
       <c r="T264" s="2"/>
       <c r="U264" s="2"/>
     </row>
-    <row r="265" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>11</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>1</v>
@@ -11832,7 +11831,7 @@
       <c r="T265" s="2"/>
       <c r="U265" s="2"/>
     </row>
-    <row r="266" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>12</v>
       </c>
@@ -11849,7 +11848,7 @@
         <v>52</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G266" s="3">
         <v>42522</v>
@@ -11873,7 +11872,7 @@
       <c r="T266" s="2"/>
       <c r="U266" s="2"/>
     </row>
-    <row r="267" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>12</v>
       </c>
@@ -11890,7 +11889,7 @@
         <v>52</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G267" s="3">
         <v>42522</v>
@@ -11914,7 +11913,7 @@
       <c r="T267" s="2"/>
       <c r="U267" s="2"/>
     </row>
-    <row r="268" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>12</v>
       </c>
@@ -11931,7 +11930,7 @@
         <v>52</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G268" s="3">
         <v>42522</v>
@@ -11955,7 +11954,7 @@
       <c r="T268" s="2"/>
       <c r="U268" s="2"/>
     </row>
-    <row r="269" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>12</v>
       </c>
@@ -11972,7 +11971,7 @@
         <v>52</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G269" s="3">
         <v>42522</v>
@@ -11996,7 +11995,7 @@
       <c r="T269" s="2"/>
       <c r="U269" s="2"/>
     </row>
-    <row r="270" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>12</v>
       </c>
@@ -12013,7 +12012,7 @@
         <v>52</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G270" s="3">
         <v>42522</v>
@@ -12037,7 +12036,7 @@
       <c r="T270" s="2"/>
       <c r="U270" s="2"/>
     </row>
-    <row r="271" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>12</v>
       </c>
@@ -12054,7 +12053,7 @@
         <v>52</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G271" s="3">
         <v>42522</v>
@@ -12078,7 +12077,7 @@
       <c r="T271" s="2"/>
       <c r="U271" s="2"/>
     </row>
-    <row r="272" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>12</v>
       </c>
@@ -12093,7 +12092,7 @@
       </c>
       <c r="E272" s="2"/>
       <c r="F272" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G272" s="3">
         <v>42522</v>
@@ -12114,7 +12113,7 @@
       <c r="T272" s="2"/>
       <c r="U272" s="2"/>
     </row>
-    <row r="273" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>12</v>
       </c>
@@ -12148,7 +12147,7 @@
       <c r="T273" s="2"/>
       <c r="U273" s="2"/>
     </row>
-    <row r="274" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>12</v>
       </c>
@@ -12165,7 +12164,7 @@
         <v>52</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G274" s="3">
         <v>42795</v>
@@ -12189,7 +12188,7 @@
       <c r="T274" s="2"/>
       <c r="U274" s="2"/>
     </row>
-    <row r="275" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>12</v>
       </c>
@@ -12206,7 +12205,7 @@
         <v>52</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G275" s="3">
         <v>42795</v>
@@ -12230,7 +12229,7 @@
       <c r="T275" s="2"/>
       <c r="U275" s="2"/>
     </row>
-    <row r="276" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>12</v>
       </c>
@@ -12247,7 +12246,7 @@
         <v>52</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G276" s="3">
         <v>42795</v>
@@ -12271,7 +12270,7 @@
       <c r="T276" s="2"/>
       <c r="U276" s="2"/>
     </row>
-    <row r="277" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>12</v>
       </c>
@@ -12286,7 +12285,7 @@
       </c>
       <c r="E277" s="2"/>
       <c r="F277" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G277" s="3">
         <v>42795</v>
@@ -12307,7 +12306,7 @@
       <c r="T277" s="2"/>
       <c r="U277" s="2"/>
     </row>
-    <row r="278" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>12</v>
       </c>
@@ -12324,7 +12323,7 @@
         <v>52</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G278" s="3">
         <v>42795</v>
@@ -12348,7 +12347,7 @@
       <c r="T278" s="2"/>
       <c r="U278" s="2"/>
     </row>
-    <row r="279" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>12</v>
       </c>
@@ -12365,7 +12364,7 @@
         <v>52</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G279" s="3">
         <v>42795</v>
@@ -12389,7 +12388,7 @@
       <c r="T279" s="2"/>
       <c r="U279" s="2"/>
     </row>
-    <row r="280" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>12</v>
       </c>
@@ -12406,7 +12405,7 @@
         <v>52</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G280" s="3">
         <v>42795</v>
@@ -12430,7 +12429,7 @@
       <c r="T280" s="2"/>
       <c r="U280" s="2"/>
     </row>
-    <row r="281" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>12</v>
       </c>
@@ -12464,12 +12463,12 @@
       <c r="T281" s="2"/>
       <c r="U281" s="2"/>
     </row>
-    <row r="282" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>12</v>
       </c>
       <c r="B282" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>9</v>
@@ -12481,7 +12480,7 @@
         <v>52</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G282" s="3">
         <v>42887</v>
@@ -12505,12 +12504,12 @@
       <c r="T282" s="2"/>
       <c r="U282" s="2"/>
     </row>
-    <row r="283" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>12</v>
       </c>
       <c r="B283" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>8</v>
@@ -12522,7 +12521,7 @@
         <v>52</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G283" s="3">
         <v>42887</v>
@@ -12546,12 +12545,12 @@
       <c r="T283" s="2"/>
       <c r="U283" s="2"/>
     </row>
-    <row r="284" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>12</v>
       </c>
       <c r="B284" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>7</v>
@@ -12580,12 +12579,12 @@
       <c r="T284" s="2"/>
       <c r="U284" s="2"/>
     </row>
-    <row r="285" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>12</v>
       </c>
       <c r="B285" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>6</v>
@@ -12614,12 +12613,12 @@
       <c r="T285" s="2"/>
       <c r="U285" s="2"/>
     </row>
-    <row r="286" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>12</v>
       </c>
       <c r="B286" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>5</v>
@@ -12631,7 +12630,7 @@
         <v>52</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G286" s="3">
         <v>42887</v>
@@ -12655,12 +12654,12 @@
       <c r="T286" s="2"/>
       <c r="U286" s="2"/>
     </row>
-    <row r="287" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>12</v>
       </c>
       <c r="B287" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>4</v>
@@ -12672,7 +12671,7 @@
         <v>52</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G287" s="3">
         <v>42887</v>
@@ -12696,12 +12695,12 @@
       <c r="T287" s="2"/>
       <c r="U287" s="2"/>
     </row>
-    <row r="288" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <v>12</v>
       </c>
       <c r="B288" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>3</v>
@@ -12713,7 +12712,7 @@
         <v>52</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G288" s="3">
         <v>42887</v>
@@ -12737,12 +12736,12 @@
       <c r="T288" s="2"/>
       <c r="U288" s="2"/>
     </row>
-    <row r="289" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>12</v>
       </c>
       <c r="B289" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>1</v>
@@ -12771,7 +12770,7 @@
       <c r="T289" s="2"/>
       <c r="U289" s="2"/>
     </row>
-    <row r="290" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>13</v>
       </c>
@@ -12805,7 +12804,7 @@
       <c r="T290" s="2"/>
       <c r="U290" s="2"/>
     </row>
-    <row r="291" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>13</v>
       </c>
@@ -12839,7 +12838,7 @@
       <c r="T291" s="2"/>
       <c r="U291" s="2"/>
     </row>
-    <row r="292" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>13</v>
       </c>
@@ -12873,7 +12872,7 @@
       <c r="T292" s="2"/>
       <c r="U292" s="2"/>
     </row>
-    <row r="293" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>13</v>
       </c>
@@ -12907,7 +12906,7 @@
       <c r="T293" s="2"/>
       <c r="U293" s="2"/>
     </row>
-    <row r="294" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>13</v>
       </c>
@@ -12941,7 +12940,7 @@
       <c r="T294" s="2"/>
       <c r="U294" s="2"/>
     </row>
-    <row r="295" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>13</v>
       </c>
@@ -12975,7 +12974,7 @@
       <c r="T295" s="2"/>
       <c r="U295" s="2"/>
     </row>
-    <row r="296" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>13</v>
       </c>
@@ -13009,7 +13008,7 @@
       <c r="T296" s="2"/>
       <c r="U296" s="2"/>
     </row>
-    <row r="297" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>13</v>
       </c>
@@ -13043,7 +13042,7 @@
       <c r="T297" s="2"/>
       <c r="U297" s="2"/>
     </row>
-    <row r="298" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>13</v>
       </c>
@@ -13077,7 +13076,7 @@
       <c r="T298" s="2"/>
       <c r="U298" s="2"/>
     </row>
-    <row r="299" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>13</v>
       </c>
@@ -13111,7 +13110,7 @@
       <c r="T299" s="2"/>
       <c r="U299" s="2"/>
     </row>
-    <row r="300" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>13</v>
       </c>
@@ -13145,7 +13144,7 @@
       <c r="T300" s="2"/>
       <c r="U300" s="2"/>
     </row>
-    <row r="301" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>13</v>
       </c>
@@ -13179,7 +13178,7 @@
       <c r="T301" s="2"/>
       <c r="U301" s="2"/>
     </row>
-    <row r="302" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>13</v>
       </c>
@@ -13213,7 +13212,7 @@
       <c r="T302" s="2"/>
       <c r="U302" s="2"/>
     </row>
-    <row r="303" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>13</v>
       </c>
@@ -13247,7 +13246,7 @@
       <c r="T303" s="2"/>
       <c r="U303" s="2"/>
     </row>
-    <row r="304" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>13</v>
       </c>
@@ -13281,7 +13280,7 @@
       <c r="T304" s="2"/>
       <c r="U304" s="2"/>
     </row>
-    <row r="305" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>13</v>
       </c>
@@ -13315,12 +13314,12 @@
       <c r="T305" s="2"/>
       <c r="U305" s="2"/>
     </row>
-    <row r="306" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>13</v>
       </c>
       <c r="B306" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>9</v>
@@ -13349,12 +13348,12 @@
       <c r="T306" s="2"/>
       <c r="U306" s="2"/>
     </row>
-    <row r="307" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>13</v>
       </c>
       <c r="B307" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>8</v>
@@ -13383,12 +13382,12 @@
       <c r="T307" s="2"/>
       <c r="U307" s="2"/>
     </row>
-    <row r="308" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>13</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>7</v>
@@ -13417,12 +13416,12 @@
       <c r="T308" s="2"/>
       <c r="U308" s="2"/>
     </row>
-    <row r="309" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>13</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>6</v>
@@ -13451,12 +13450,12 @@
       <c r="T309" s="2"/>
       <c r="U309" s="2"/>
     </row>
-    <row r="310" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>13</v>
       </c>
       <c r="B310" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>5</v>
@@ -13485,12 +13484,12 @@
       <c r="T310" s="2"/>
       <c r="U310" s="2"/>
     </row>
-    <row r="311" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <v>13</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>4</v>
@@ -13519,12 +13518,12 @@
       <c r="T311" s="2"/>
       <c r="U311" s="2"/>
     </row>
-    <row r="312" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <v>13</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>3</v>
@@ -13553,12 +13552,12 @@
       <c r="T312" s="2"/>
       <c r="U312" s="2"/>
     </row>
-    <row r="313" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>13</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>1</v>
@@ -13587,7 +13586,7 @@
       <c r="T313" s="2"/>
       <c r="U313" s="2"/>
     </row>
-    <row r="314" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>14</v>
       </c>
@@ -13621,7 +13620,7 @@
       <c r="T314" s="2"/>
       <c r="U314" s="2"/>
     </row>
-    <row r="315" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>14</v>
       </c>
@@ -13655,7 +13654,7 @@
       <c r="T315" s="2"/>
       <c r="U315" s="2"/>
     </row>
-    <row r="316" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <v>14</v>
       </c>
@@ -13689,7 +13688,7 @@
       <c r="T316" s="2"/>
       <c r="U316" s="2"/>
     </row>
-    <row r="317" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <v>14</v>
       </c>
@@ -13723,7 +13722,7 @@
       <c r="T317" s="2"/>
       <c r="U317" s="2"/>
     </row>
-    <row r="318" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>14</v>
       </c>
@@ -13757,7 +13756,7 @@
       <c r="T318" s="2"/>
       <c r="U318" s="2"/>
     </row>
-    <row r="319" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <v>14</v>
       </c>
@@ -13791,7 +13790,7 @@
       <c r="T319" s="2"/>
       <c r="U319" s="2"/>
     </row>
-    <row r="320" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>14</v>
       </c>
@@ -13825,7 +13824,7 @@
       <c r="T320" s="2"/>
       <c r="U320" s="2"/>
     </row>
-    <row r="321" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <v>14</v>
       </c>
@@ -13859,7 +13858,7 @@
       <c r="T321" s="2"/>
       <c r="U321" s="2"/>
     </row>
-    <row r="322" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <v>14</v>
       </c>
@@ -13893,7 +13892,7 @@
       <c r="T322" s="2"/>
       <c r="U322" s="2"/>
     </row>
-    <row r="323" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <v>14</v>
       </c>
@@ -13927,7 +13926,7 @@
       <c r="T323" s="2"/>
       <c r="U323" s="2"/>
     </row>
-    <row r="324" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <v>14</v>
       </c>
@@ -13961,7 +13960,7 @@
       <c r="T324" s="2"/>
       <c r="U324" s="2"/>
     </row>
-    <row r="325" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <v>14</v>
       </c>
@@ -13995,7 +13994,7 @@
       <c r="T325" s="2"/>
       <c r="U325" s="2"/>
     </row>
-    <row r="326" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <v>14</v>
       </c>
@@ -14029,7 +14028,7 @@
       <c r="T326" s="2"/>
       <c r="U326" s="2"/>
     </row>
-    <row r="327" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <v>14</v>
       </c>
@@ -14063,7 +14062,7 @@
       <c r="T327" s="2"/>
       <c r="U327" s="2"/>
     </row>
-    <row r="328" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
         <v>14</v>
       </c>
@@ -14097,7 +14096,7 @@
       <c r="T328" s="2"/>
       <c r="U328" s="2"/>
     </row>
-    <row r="329" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
         <v>14</v>
       </c>
@@ -14131,12 +14130,12 @@
       <c r="T329" s="2"/>
       <c r="U329" s="2"/>
     </row>
-    <row r="330" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
         <v>14</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>9</v>
@@ -14165,12 +14164,12 @@
       <c r="T330" s="2"/>
       <c r="U330" s="2"/>
     </row>
-    <row r="331" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
         <v>14</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>8</v>
@@ -14199,12 +14198,12 @@
       <c r="T331" s="2"/>
       <c r="U331" s="2"/>
     </row>
-    <row r="332" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
         <v>14</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>7</v>
@@ -14233,12 +14232,12 @@
       <c r="T332" s="2"/>
       <c r="U332" s="2"/>
     </row>
-    <row r="333" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
         <v>14</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>6</v>
@@ -14267,12 +14266,12 @@
       <c r="T333" s="2"/>
       <c r="U333" s="2"/>
     </row>
-    <row r="334" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
         <v>14</v>
       </c>
       <c r="B334" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>5</v>
@@ -14301,12 +14300,12 @@
       <c r="T334" s="2"/>
       <c r="U334" s="2"/>
     </row>
-    <row r="335" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
         <v>14</v>
       </c>
       <c r="B335" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>4</v>
@@ -14335,12 +14334,12 @@
       <c r="T335" s="2"/>
       <c r="U335" s="2"/>
     </row>
-    <row r="336" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
         <v>14</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>3</v>
@@ -14369,12 +14368,12 @@
       <c r="T336" s="2"/>
       <c r="U336" s="2"/>
     </row>
-    <row r="337" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
         <v>14</v>
       </c>
       <c r="B337" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>1</v>
@@ -14403,7 +14402,7 @@
       <c r="T337" s="2"/>
       <c r="U337" s="2"/>
     </row>
-    <row r="338" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A338" s="4">
         <v>15</v>
       </c>
@@ -14420,7 +14419,7 @@
         <v>59</v>
       </c>
       <c r="F338" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G338" s="5">
         <v>41760</v>
@@ -14444,7 +14443,7 @@
       <c r="T338" s="2"/>
       <c r="U338" s="2"/>
     </row>
-    <row r="339" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A339" s="4">
         <v>15</v>
       </c>
@@ -14461,7 +14460,7 @@
         <v>59</v>
       </c>
       <c r="F339" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G339" s="5">
         <v>41760</v>
@@ -14485,7 +14484,7 @@
       <c r="T339" s="2"/>
       <c r="U339" s="2"/>
     </row>
-    <row r="340" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A340" s="4">
         <v>15</v>
       </c>
@@ -14502,7 +14501,7 @@
         <v>59</v>
       </c>
       <c r="F340" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G340" s="5">
         <v>41760</v>
@@ -14526,7 +14525,7 @@
       <c r="T340" s="2"/>
       <c r="U340" s="2"/>
     </row>
-    <row r="341" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A341" s="4">
         <v>15</v>
       </c>
@@ -14543,7 +14542,7 @@
         <v>59</v>
       </c>
       <c r="F341" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G341" s="5">
         <v>41760</v>
@@ -14567,7 +14566,7 @@
       <c r="T341" s="2"/>
       <c r="U341" s="2"/>
     </row>
-    <row r="342" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A342" s="4">
         <v>15</v>
       </c>
@@ -14608,7 +14607,7 @@
       <c r="T342" s="2"/>
       <c r="U342" s="2"/>
     </row>
-    <row r="343" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A343" s="4">
         <v>15</v>
       </c>
@@ -14649,7 +14648,7 @@
       <c r="T343" s="2"/>
       <c r="U343" s="2"/>
     </row>
-    <row r="344" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A344" s="4">
         <v>15</v>
       </c>
@@ -14690,7 +14689,7 @@
       <c r="T344" s="2"/>
       <c r="U344" s="2"/>
     </row>
-    <row r="345" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A345" s="4">
         <v>15</v>
       </c>
@@ -14707,7 +14706,7 @@
         <v>59</v>
       </c>
       <c r="F345" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G345" s="5">
         <v>41760</v>
@@ -14731,7 +14730,7 @@
       <c r="T345" s="2"/>
       <c r="U345" s="2"/>
     </row>
-    <row r="346" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
         <v>15</v>
       </c>
@@ -14765,7 +14764,7 @@
       <c r="T346" s="2"/>
       <c r="U346" s="2"/>
     </row>
-    <row r="347" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
         <v>15</v>
       </c>
@@ -14799,7 +14798,7 @@
       <c r="T347" s="2"/>
       <c r="U347" s="2"/>
     </row>
-    <row r="348" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
         <v>15</v>
       </c>
@@ -14833,7 +14832,7 @@
       <c r="T348" s="2"/>
       <c r="U348" s="2"/>
     </row>
-    <row r="349" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
         <v>15</v>
       </c>
@@ -14867,7 +14866,7 @@
       <c r="T349" s="2"/>
       <c r="U349" s="2"/>
     </row>
-    <row r="350" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
         <v>15</v>
       </c>
@@ -14901,7 +14900,7 @@
       <c r="T350" s="2"/>
       <c r="U350" s="2"/>
     </row>
-    <row r="351" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
         <v>15</v>
       </c>
@@ -14935,7 +14934,7 @@
       <c r="T351" s="2"/>
       <c r="U351" s="2"/>
     </row>
-    <row r="352" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
         <v>15</v>
       </c>
@@ -14969,7 +14968,7 @@
       <c r="T352" s="2"/>
       <c r="U352" s="2"/>
     </row>
-    <row r="353" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
         <v>15</v>
       </c>
@@ -15003,12 +15002,12 @@
       <c r="T353" s="2"/>
       <c r="U353" s="2"/>
     </row>
-    <row r="354" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
         <v>15</v>
       </c>
       <c r="B354" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>9</v>
@@ -15037,12 +15036,12 @@
       <c r="T354" s="2"/>
       <c r="U354" s="2"/>
     </row>
-    <row r="355" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
         <v>15</v>
       </c>
       <c r="B355" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>8</v>
@@ -15071,12 +15070,12 @@
       <c r="T355" s="2"/>
       <c r="U355" s="2"/>
     </row>
-    <row r="356" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
         <v>15</v>
       </c>
       <c r="B356" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>7</v>
@@ -15105,12 +15104,12 @@
       <c r="T356" s="2"/>
       <c r="U356" s="2"/>
     </row>
-    <row r="357" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
         <v>15</v>
       </c>
       <c r="B357" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>6</v>
@@ -15139,12 +15138,12 @@
       <c r="T357" s="2"/>
       <c r="U357" s="2"/>
     </row>
-    <row r="358" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
         <v>15</v>
       </c>
       <c r="B358" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>5</v>
@@ -15173,12 +15172,12 @@
       <c r="T358" s="2"/>
       <c r="U358" s="2"/>
     </row>
-    <row r="359" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
         <v>15</v>
       </c>
       <c r="B359" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>4</v>
@@ -15207,12 +15206,12 @@
       <c r="T359" s="2"/>
       <c r="U359" s="2"/>
     </row>
-    <row r="360" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
         <v>15</v>
       </c>
       <c r="B360" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>3</v>
@@ -15241,12 +15240,12 @@
       <c r="T360" s="2"/>
       <c r="U360" s="2"/>
     </row>
-    <row r="361" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
         <v>15</v>
       </c>
       <c r="B361" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>1</v>
@@ -15275,7 +15274,7 @@
       <c r="T361" s="2"/>
       <c r="U361" s="2"/>
     </row>
-    <row r="362" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
         <v>16</v>
       </c>
@@ -15292,7 +15291,7 @@
         <v>52</v>
       </c>
       <c r="F362" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G362" s="3">
         <v>42491</v>
@@ -15313,7 +15312,7 @@
       <c r="T362" s="2"/>
       <c r="U362" s="2"/>
     </row>
-    <row r="363" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
         <v>16</v>
       </c>
@@ -15330,7 +15329,7 @@
         <v>52</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G363" s="3">
         <v>42491</v>
@@ -15351,7 +15350,7 @@
       <c r="T363" s="2"/>
       <c r="U363" s="2"/>
     </row>
-    <row r="364" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
         <v>16</v>
       </c>
@@ -15368,7 +15367,7 @@
         <v>52</v>
       </c>
       <c r="F364" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G364" s="3">
         <v>42491</v>
@@ -15392,7 +15391,7 @@
       <c r="T364" s="2"/>
       <c r="U364" s="2"/>
     </row>
-    <row r="365" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
         <v>16</v>
       </c>
@@ -15409,7 +15408,7 @@
         <v>52</v>
       </c>
       <c r="F365" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G365" s="3">
         <v>42491</v>
@@ -15433,7 +15432,7 @@
       <c r="T365" s="2"/>
       <c r="U365" s="2"/>
     </row>
-    <row r="366" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
         <v>16</v>
       </c>
@@ -15450,7 +15449,7 @@
         <v>52</v>
       </c>
       <c r="F366" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G366" s="3">
         <v>42491</v>
@@ -15471,7 +15470,7 @@
       <c r="T366" s="2"/>
       <c r="U366" s="2"/>
     </row>
-    <row r="367" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
         <v>16</v>
       </c>
@@ -15488,7 +15487,7 @@
         <v>52</v>
       </c>
       <c r="F367" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G367" s="3">
         <v>42491</v>
@@ -15509,7 +15508,7 @@
       <c r="T367" s="2"/>
       <c r="U367" s="2"/>
     </row>
-    <row r="368" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
         <v>16</v>
       </c>
@@ -15526,7 +15525,7 @@
         <v>52</v>
       </c>
       <c r="F368" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G368" s="3">
         <v>42491</v>
@@ -15547,7 +15546,7 @@
       <c r="T368" s="2"/>
       <c r="U368" s="2"/>
     </row>
-    <row r="369" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
         <v>16</v>
       </c>
@@ -15581,7 +15580,7 @@
       <c r="T369" s="2"/>
       <c r="U369" s="2"/>
     </row>
-    <row r="370" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
         <v>16</v>
       </c>
@@ -15615,7 +15614,7 @@
       <c r="T370" s="2"/>
       <c r="U370" s="2"/>
     </row>
-    <row r="371" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
         <v>16</v>
       </c>
@@ -15649,7 +15648,7 @@
       <c r="T371" s="2"/>
       <c r="U371" s="2"/>
     </row>
-    <row r="372" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
         <v>16</v>
       </c>
@@ -15683,7 +15682,7 @@
       <c r="T372" s="2"/>
       <c r="U372" s="2"/>
     </row>
-    <row r="373" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
         <v>16</v>
       </c>
@@ -15717,7 +15716,7 @@
       <c r="T373" s="2"/>
       <c r="U373" s="2"/>
     </row>
-    <row r="374" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
         <v>16</v>
       </c>
@@ -15751,7 +15750,7 @@
       <c r="T374" s="2"/>
       <c r="U374" s="2"/>
     </row>
-    <row r="375" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
         <v>16</v>
       </c>
@@ -15785,7 +15784,7 @@
       <c r="T375" s="2"/>
       <c r="U375" s="2"/>
     </row>
-    <row r="376" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
         <v>16</v>
       </c>
@@ -15819,7 +15818,7 @@
       <c r="T376" s="2"/>
       <c r="U376" s="2"/>
     </row>
-    <row r="377" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
         <v>16</v>
       </c>
@@ -15853,7 +15852,7 @@
       <c r="T377" s="2"/>
       <c r="U377" s="2"/>
     </row>
-    <row r="378" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
         <v>16</v>
       </c>
@@ -15887,7 +15886,7 @@
       <c r="T378" s="2"/>
       <c r="U378" s="2"/>
     </row>
-    <row r="379" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
         <v>16</v>
       </c>
@@ -15921,7 +15920,7 @@
       <c r="T379" s="2"/>
       <c r="U379" s="2"/>
     </row>
-    <row r="380" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
         <v>16</v>
       </c>
@@ -15955,7 +15954,7 @@
       <c r="T380" s="2"/>
       <c r="U380" s="2"/>
     </row>
-    <row r="381" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
         <v>16</v>
       </c>
@@ -15989,7 +15988,7 @@
       <c r="T381" s="2"/>
       <c r="U381" s="2"/>
     </row>
-    <row r="382" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
         <v>16</v>
       </c>
@@ -16023,7 +16022,7 @@
       <c r="T382" s="2"/>
       <c r="U382" s="2"/>
     </row>
-    <row r="383" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
         <v>16</v>
       </c>
@@ -16057,7 +16056,7 @@
       <c r="T383" s="2"/>
       <c r="U383" s="2"/>
     </row>
-    <row r="384" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
         <v>16</v>
       </c>
@@ -16091,7 +16090,7 @@
       <c r="T384" s="2"/>
       <c r="U384" s="2"/>
     </row>
-    <row r="385" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
         <v>16</v>
       </c>
@@ -16125,7 +16124,7 @@
       <c r="T385" s="2"/>
       <c r="U385" s="2"/>
     </row>
-    <row r="386" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
         <v>17</v>
       </c>
@@ -16142,7 +16141,7 @@
         <v>52</v>
       </c>
       <c r="F386" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G386" s="3">
         <v>42125</v>
@@ -16163,7 +16162,7 @@
       <c r="T386" s="2"/>
       <c r="U386" s="2"/>
     </row>
-    <row r="387" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
         <v>17</v>
       </c>
@@ -16180,7 +16179,7 @@
         <v>52</v>
       </c>
       <c r="F387" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G387" s="3">
         <v>42125</v>
@@ -16201,7 +16200,7 @@
       <c r="T387" s="2"/>
       <c r="U387" s="2"/>
     </row>
-    <row r="388" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
         <v>17</v>
       </c>
@@ -16218,7 +16217,7 @@
         <v>52</v>
       </c>
       <c r="F388" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G388" s="3">
         <v>42125</v>
@@ -16242,7 +16241,7 @@
       <c r="T388" s="2"/>
       <c r="U388" s="2"/>
     </row>
-    <row r="389" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
         <v>17</v>
       </c>
@@ -16259,7 +16258,7 @@
         <v>52</v>
       </c>
       <c r="F389" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G389" s="3">
         <v>42125</v>
@@ -16283,7 +16282,7 @@
       <c r="T389" s="2"/>
       <c r="U389" s="2"/>
     </row>
-    <row r="390" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
         <v>17</v>
       </c>
@@ -16300,7 +16299,7 @@
         <v>52</v>
       </c>
       <c r="F390" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G390" s="3">
         <v>42125</v>
@@ -16324,7 +16323,7 @@
       <c r="T390" s="2"/>
       <c r="U390" s="2"/>
     </row>
-    <row r="391" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
         <v>17</v>
       </c>
@@ -16341,7 +16340,7 @@
         <v>52</v>
       </c>
       <c r="F391" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G391" s="3">
         <v>42125</v>
@@ -16365,7 +16364,7 @@
       <c r="T391" s="2"/>
       <c r="U391" s="2"/>
     </row>
-    <row r="392" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
         <v>17</v>
       </c>
@@ -16399,7 +16398,7 @@
       <c r="T392" s="2"/>
       <c r="U392" s="2"/>
     </row>
-    <row r="393" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
         <v>17</v>
       </c>
@@ -16433,7 +16432,7 @@
       <c r="T393" s="2"/>
       <c r="U393" s="2"/>
     </row>
-    <row r="394" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
         <v>17</v>
       </c>
@@ -16467,7 +16466,7 @@
       <c r="T394" s="2"/>
       <c r="U394" s="2"/>
     </row>
-    <row r="395" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
         <v>17</v>
       </c>
@@ -16501,7 +16500,7 @@
       <c r="T395" s="2"/>
       <c r="U395" s="2"/>
     </row>
-    <row r="396" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
         <v>17</v>
       </c>
@@ -16535,7 +16534,7 @@
       <c r="T396" s="2"/>
       <c r="U396" s="2"/>
     </row>
-    <row r="397" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
         <v>17</v>
       </c>
@@ -16569,7 +16568,7 @@
       <c r="T397" s="2"/>
       <c r="U397" s="2"/>
     </row>
-    <row r="398" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
         <v>17</v>
       </c>
@@ -16603,7 +16602,7 @@
       <c r="T398" s="2"/>
       <c r="U398" s="2"/>
     </row>
-    <row r="399" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
         <v>17</v>
       </c>
@@ -16637,7 +16636,7 @@
       <c r="T399" s="2"/>
       <c r="U399" s="2"/>
     </row>
-    <row r="400" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
         <v>17</v>
       </c>
@@ -16671,7 +16670,7 @@
       <c r="T400" s="2"/>
       <c r="U400" s="2"/>
     </row>
-    <row r="401" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
         <v>17</v>
       </c>
@@ -16705,7 +16704,7 @@
       <c r="T401" s="2"/>
       <c r="U401" s="2"/>
     </row>
-    <row r="402" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
         <v>17</v>
       </c>
@@ -16722,7 +16721,7 @@
         <v>52</v>
       </c>
       <c r="F402" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G402" s="3">
         <v>42856</v>
@@ -16743,7 +16742,7 @@
       <c r="T402" s="2"/>
       <c r="U402" s="2"/>
     </row>
-    <row r="403" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
         <v>17</v>
       </c>
@@ -16760,7 +16759,7 @@
         <v>52</v>
       </c>
       <c r="F403" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G403" s="3">
         <v>42856</v>
@@ -16781,7 +16780,7 @@
       <c r="T403" s="2"/>
       <c r="U403" s="2"/>
     </row>
-    <row r="404" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
         <v>17</v>
       </c>
@@ -16815,7 +16814,7 @@
       <c r="T404" s="2"/>
       <c r="U404" s="2"/>
     </row>
-    <row r="405" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
         <v>17</v>
       </c>
@@ -16849,7 +16848,7 @@
       <c r="T405" s="2"/>
       <c r="U405" s="2"/>
     </row>
-    <row r="406" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
         <v>17</v>
       </c>
@@ -16883,7 +16882,7 @@
       <c r="T406" s="2"/>
       <c r="U406" s="2"/>
     </row>
-    <row r="407" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
         <v>17</v>
       </c>
@@ -16917,7 +16916,7 @@
       <c r="T407" s="2"/>
       <c r="U407" s="2"/>
     </row>
-    <row r="408" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
         <v>17</v>
       </c>
@@ -16951,7 +16950,7 @@
       <c r="T408" s="2"/>
       <c r="U408" s="2"/>
     </row>
-    <row r="409" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
         <v>17</v>
       </c>
@@ -16985,7 +16984,7 @@
       <c r="T409" s="2"/>
       <c r="U409" s="2"/>
     </row>
-    <row r="410" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
         <v>18</v>
       </c>
@@ -17002,7 +17001,7 @@
         <v>52</v>
       </c>
       <c r="F410" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G410" s="3">
         <v>42552</v>
@@ -17026,7 +17025,7 @@
       <c r="T410" s="2"/>
       <c r="U410" s="2"/>
     </row>
-    <row r="411" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
         <v>18</v>
       </c>
@@ -17060,7 +17059,7 @@
       <c r="T411" s="2"/>
       <c r="U411" s="2"/>
     </row>
-    <row r="412" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
         <v>18</v>
       </c>
@@ -17094,7 +17093,7 @@
       <c r="T412" s="2"/>
       <c r="U412" s="2"/>
     </row>
-    <row r="413" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
         <v>18</v>
       </c>
@@ -17128,7 +17127,7 @@
       <c r="T413" s="2"/>
       <c r="U413" s="2"/>
     </row>
-    <row r="414" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
         <v>18</v>
       </c>
@@ -17145,7 +17144,7 @@
         <v>52</v>
       </c>
       <c r="F414" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G414" s="3">
         <v>42552</v>
@@ -17169,7 +17168,7 @@
       <c r="T414" s="2"/>
       <c r="U414" s="2"/>
     </row>
-    <row r="415" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
         <v>18</v>
       </c>
@@ -17186,7 +17185,7 @@
         <v>52</v>
       </c>
       <c r="F415" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G415" s="3">
         <v>42552</v>
@@ -17210,7 +17209,7 @@
       <c r="T415" s="2"/>
       <c r="U415" s="2"/>
     </row>
-    <row r="416" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
         <v>18</v>
       </c>
@@ -17244,7 +17243,7 @@
       <c r="T416" s="2"/>
       <c r="U416" s="2"/>
     </row>
-    <row r="417" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
         <v>18</v>
       </c>
@@ -17278,12 +17277,12 @@
       <c r="T417" s="2"/>
       <c r="U417" s="2"/>
     </row>
-    <row r="418" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
         <v>18</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>9</v>
@@ -17312,12 +17311,12 @@
       <c r="T418" s="2"/>
       <c r="U418" s="2"/>
     </row>
-    <row r="419" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
         <v>18</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>8</v>
@@ -17346,12 +17345,12 @@
       <c r="T419" s="2"/>
       <c r="U419" s="2"/>
     </row>
-    <row r="420" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
         <v>18</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>7</v>
@@ -17380,12 +17379,12 @@
       <c r="T420" s="2"/>
       <c r="U420" s="2"/>
     </row>
-    <row r="421" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
         <v>18</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>6</v>
@@ -17414,12 +17413,12 @@
       <c r="T421" s="2"/>
       <c r="U421" s="2"/>
     </row>
-    <row r="422" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
         <v>18</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>5</v>
@@ -17431,7 +17430,7 @@
         <v>52</v>
       </c>
       <c r="F422" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G422" s="3">
         <v>42917</v>
@@ -17455,12 +17454,12 @@
       <c r="T422" s="2"/>
       <c r="U422" s="2"/>
     </row>
-    <row r="423" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A423" s="2">
         <v>18</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>4</v>
@@ -17472,7 +17471,7 @@
         <v>52</v>
       </c>
       <c r="F423" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G423" s="3">
         <v>42917</v>
@@ -17496,12 +17495,12 @@
       <c r="T423" s="2"/>
       <c r="U423" s="2"/>
     </row>
-    <row r="424" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A424" s="2">
         <v>18</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>3</v>
@@ -17530,12 +17529,12 @@
       <c r="T424" s="2"/>
       <c r="U424" s="2"/>
     </row>
-    <row r="425" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
         <v>18</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>1</v>
@@ -17564,7 +17563,7 @@
       <c r="T425" s="2"/>
       <c r="U425" s="2"/>
     </row>
-    <row r="426" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
         <v>19</v>
       </c>
@@ -17600,7 +17599,7 @@
       <c r="T426" s="2"/>
       <c r="U426" s="2"/>
     </row>
-    <row r="427" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
         <v>19</v>
       </c>
@@ -17636,7 +17635,7 @@
       <c r="T427" s="2"/>
       <c r="U427" s="2"/>
     </row>
-    <row r="428" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
         <v>19</v>
       </c>
@@ -17672,7 +17671,7 @@
       <c r="T428" s="2"/>
       <c r="U428" s="2"/>
     </row>
-    <row r="429" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A429" s="2">
         <v>19</v>
       </c>
@@ -17708,7 +17707,7 @@
       <c r="T429" s="2"/>
       <c r="U429" s="2"/>
     </row>
-    <row r="430" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A430" s="2">
         <v>19</v>
       </c>
@@ -17744,7 +17743,7 @@
       <c r="T430" s="2"/>
       <c r="U430" s="2"/>
     </row>
-    <row r="431" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A431" s="2">
         <v>19</v>
       </c>
@@ -17780,7 +17779,7 @@
       <c r="T431" s="2"/>
       <c r="U431" s="2"/>
     </row>
-    <row r="432" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A432" s="2">
         <v>19</v>
       </c>
@@ -17816,7 +17815,7 @@
       <c r="T432" s="2"/>
       <c r="U432" s="2"/>
     </row>
-    <row r="433" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A433" s="2">
         <v>19</v>
       </c>
@@ -17850,7 +17849,7 @@
       <c r="T433" s="2"/>
       <c r="U433" s="2"/>
     </row>
-    <row r="434" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A434" s="2">
         <v>19</v>
       </c>
@@ -17886,7 +17885,7 @@
       <c r="T434" s="2"/>
       <c r="U434" s="2"/>
     </row>
-    <row r="435" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A435" s="2">
         <v>19</v>
       </c>
@@ -17922,7 +17921,7 @@
       <c r="T435" s="2"/>
       <c r="U435" s="2"/>
     </row>
-    <row r="436" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
         <v>19</v>
       </c>
@@ -17958,7 +17957,7 @@
       <c r="T436" s="2"/>
       <c r="U436" s="2"/>
     </row>
-    <row r="437" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
         <v>19</v>
       </c>
@@ -17994,7 +17993,7 @@
       <c r="T437" s="2"/>
       <c r="U437" s="2"/>
     </row>
-    <row r="438" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
         <v>19</v>
       </c>
@@ -18030,7 +18029,7 @@
       <c r="T438" s="2"/>
       <c r="U438" s="2"/>
     </row>
-    <row r="439" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
         <v>19</v>
       </c>
@@ -18066,7 +18065,7 @@
       <c r="T439" s="2"/>
       <c r="U439" s="2"/>
     </row>
-    <row r="440" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A440" s="2">
         <v>19</v>
       </c>
@@ -18102,7 +18101,7 @@
       <c r="T440" s="2"/>
       <c r="U440" s="2"/>
     </row>
-    <row r="441" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A441" s="2">
         <v>19</v>
       </c>
@@ -18136,7 +18135,7 @@
       <c r="T441" s="2"/>
       <c r="U441" s="2"/>
     </row>
-    <row r="442" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A442" s="2">
         <v>19</v>
       </c>
@@ -18170,7 +18169,7 @@
       <c r="T442" s="2"/>
       <c r="U442" s="2"/>
     </row>
-    <row r="443" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A443" s="2">
         <v>19</v>
       </c>
@@ -18204,7 +18203,7 @@
       <c r="T443" s="2"/>
       <c r="U443" s="2"/>
     </row>
-    <row r="444" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A444" s="2">
         <v>19</v>
       </c>
@@ -18238,7 +18237,7 @@
       <c r="T444" s="2"/>
       <c r="U444" s="2"/>
     </row>
-    <row r="445" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A445" s="2">
         <v>19</v>
       </c>
@@ -18272,7 +18271,7 @@
       <c r="T445" s="2"/>
       <c r="U445" s="2"/>
     </row>
-    <row r="446" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A446" s="2">
         <v>19</v>
       </c>
@@ -18306,7 +18305,7 @@
       <c r="T446" s="2"/>
       <c r="U446" s="2"/>
     </row>
-    <row r="447" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A447" s="2">
         <v>19</v>
       </c>
@@ -18340,7 +18339,7 @@
       <c r="T447" s="2"/>
       <c r="U447" s="2"/>
     </row>
-    <row r="448" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A448" s="2">
         <v>19</v>
       </c>
@@ -18374,7 +18373,7 @@
       <c r="T448" s="2"/>
       <c r="U448" s="2"/>
     </row>
-    <row r="449" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A449" s="2">
         <v>19</v>
       </c>
@@ -18408,7 +18407,7 @@
       <c r="T449" s="2"/>
       <c r="U449" s="2"/>
     </row>
-    <row r="450" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A450" s="2">
         <v>19</v>
       </c>
@@ -18444,7 +18443,7 @@
       <c r="T450" s="2"/>
       <c r="U450" s="2"/>
     </row>
-    <row r="451" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A451" s="2">
         <v>19</v>
       </c>
@@ -18480,7 +18479,7 @@
       <c r="T451" s="2"/>
       <c r="U451" s="2"/>
     </row>
-    <row r="452" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A452" s="2">
         <v>19</v>
       </c>
@@ -18516,7 +18515,7 @@
       <c r="T452" s="2"/>
       <c r="U452" s="2"/>
     </row>
-    <row r="453" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A453" s="2">
         <v>19</v>
       </c>
@@ -18552,7 +18551,7 @@
       <c r="T453" s="2"/>
       <c r="U453" s="2"/>
     </row>
-    <row r="454" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A454" s="2">
         <v>19</v>
       </c>
@@ -18588,7 +18587,7 @@
       <c r="T454" s="2"/>
       <c r="U454" s="2"/>
     </row>
-    <row r="455" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A455" s="2">
         <v>19</v>
       </c>
@@ -18624,7 +18623,7 @@
       <c r="T455" s="2"/>
       <c r="U455" s="2"/>
     </row>
-    <row r="456" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A456" s="2">
         <v>19</v>
       </c>
@@ -18660,7 +18659,7 @@
       <c r="T456" s="2"/>
       <c r="U456" s="2"/>
     </row>
-    <row r="457" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A457" s="2">
         <v>19</v>
       </c>
@@ -18696,7 +18695,7 @@
       <c r="T457" s="2"/>
       <c r="U457" s="2"/>
     </row>
-    <row r="458" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A458" s="2">
         <v>20</v>
       </c>
@@ -18730,7 +18729,7 @@
       <c r="T458" s="2"/>
       <c r="U458" s="2"/>
     </row>
-    <row r="459" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A459" s="2">
         <v>20</v>
       </c>
@@ -18764,7 +18763,7 @@
       <c r="T459" s="2"/>
       <c r="U459" s="2"/>
     </row>
-    <row r="460" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A460" s="2">
         <v>20</v>
       </c>
@@ -18798,7 +18797,7 @@
       <c r="T460" s="2"/>
       <c r="U460" s="2"/>
     </row>
-    <row r="461" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A461" s="2">
         <v>20</v>
       </c>
@@ -18832,7 +18831,7 @@
       <c r="T461" s="2"/>
       <c r="U461" s="2"/>
     </row>
-    <row r="462" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A462" s="2">
         <v>20</v>
       </c>
@@ -18866,7 +18865,7 @@
       <c r="T462" s="2"/>
       <c r="U462" s="2"/>
     </row>
-    <row r="463" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A463" s="2">
         <v>20</v>
       </c>
@@ -18900,7 +18899,7 @@
       <c r="T463" s="2"/>
       <c r="U463" s="2"/>
     </row>
-    <row r="464" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A464" s="2">
         <v>20</v>
       </c>
@@ -18934,7 +18933,7 @@
       <c r="T464" s="2"/>
       <c r="U464" s="2"/>
     </row>
-    <row r="465" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A465" s="2">
         <v>20</v>
       </c>
@@ -18968,12 +18967,12 @@
       <c r="T465" s="2"/>
       <c r="U465" s="2"/>
     </row>
-    <row r="466" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A466" s="2">
         <v>20</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>9</v>
@@ -18985,7 +18984,7 @@
         <v>52</v>
       </c>
       <c r="F466" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G466" s="3">
         <v>42795</v>
@@ -19009,12 +19008,12 @@
       <c r="T466" s="2"/>
       <c r="U466" s="2"/>
     </row>
-    <row r="467" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A467" s="2">
         <v>20</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>8</v>
@@ -19024,7 +19023,7 @@
       </c>
       <c r="E467" s="2"/>
       <c r="F467" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G467" s="3">
         <v>42795</v>
@@ -19045,12 +19044,12 @@
       <c r="T467" s="2"/>
       <c r="U467" s="2"/>
     </row>
-    <row r="468" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A468" s="2">
         <v>20</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>7</v>
@@ -19060,7 +19059,7 @@
       </c>
       <c r="E468" s="2"/>
       <c r="F468" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G468" s="3">
         <v>42795</v>
@@ -19081,12 +19080,12 @@
       <c r="T468" s="2"/>
       <c r="U468" s="2"/>
     </row>
-    <row r="469" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A469" s="2">
         <v>20</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>6</v>
@@ -19096,7 +19095,7 @@
       </c>
       <c r="E469" s="2"/>
       <c r="F469" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G469" s="3">
         <v>42795</v>
@@ -19117,12 +19116,12 @@
       <c r="T469" s="2"/>
       <c r="U469" s="2"/>
     </row>
-    <row r="470" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A470" s="2">
         <v>20</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>5</v>
@@ -19151,12 +19150,12 @@
       <c r="T470" s="2"/>
       <c r="U470" s="2"/>
     </row>
-    <row r="471" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A471" s="2">
         <v>20</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>4</v>
@@ -19185,12 +19184,12 @@
       <c r="T471" s="2"/>
       <c r="U471" s="2"/>
     </row>
-    <row r="472" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A472" s="2">
         <v>20</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>3</v>
@@ -19200,7 +19199,7 @@
       </c>
       <c r="E472" s="2"/>
       <c r="F472" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G472" s="3">
         <v>42795</v>
@@ -19221,12 +19220,12 @@
       <c r="T472" s="2"/>
       <c r="U472" s="2"/>
     </row>
-    <row r="473" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A473" s="2">
         <v>20</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>9</v>
@@ -19255,12 +19254,12 @@
       <c r="T473" s="2"/>
       <c r="U473" s="2"/>
     </row>
-    <row r="474" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A474" s="2">
         <v>20</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>8</v>
@@ -19289,12 +19288,12 @@
       <c r="T474" s="2"/>
       <c r="U474" s="2"/>
     </row>
-    <row r="475" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A475" s="2">
         <v>20</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>7</v>
@@ -19323,12 +19322,12 @@
       <c r="T475" s="2"/>
       <c r="U475" s="2"/>
     </row>
-    <row r="476" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A476" s="2">
         <v>20</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>6</v>
@@ -19357,12 +19356,12 @@
       <c r="T476" s="2"/>
       <c r="U476" s="2"/>
     </row>
-    <row r="477" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A477" s="2">
         <v>20</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>5</v>
@@ -19391,12 +19390,12 @@
       <c r="T477" s="2"/>
       <c r="U477" s="2"/>
     </row>
-    <row r="478" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A478" s="2">
         <v>20</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>4</v>
@@ -19425,12 +19424,12 @@
       <c r="T478" s="2"/>
       <c r="U478" s="2"/>
     </row>
-    <row r="479" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A479" s="2">
         <v>20</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>3</v>
@@ -19459,12 +19458,12 @@
       <c r="T479" s="2"/>
       <c r="U479" s="2"/>
     </row>
-    <row r="480" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A480" s="2">
         <v>20</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>1</v>
@@ -19474,7 +19473,7 @@
       </c>
       <c r="E480" s="2"/>
       <c r="F480" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G480" s="3">
         <v>42795</v>
@@ -19495,12 +19494,12 @@
       <c r="T480" s="2"/>
       <c r="U480" s="2"/>
     </row>
-    <row r="481" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A481" s="2">
         <v>20</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>1</v>
@@ -19970,19 +19969,6 @@
       <c r="U502" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I481">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="4"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="forbs/grasses"/>
-        <filter val="trees/shrubs"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <sortState ref="A2:I481">
     <sortCondition ref="G2:G481"/>
     <sortCondition ref="D2:D481" customList="no,yes"/>
